--- a/pred_ohlcv/54_21/2019-10-11 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 STEEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>649120.1234636103</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>649118.1234636103</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>648248.3979636104</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>638752.2174636103</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>638752.2174636103</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>638752.2174636103</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>643544.4591636104</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>643383.4591636104</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>643384.5691636103</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>643384.5691636103</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>650149.9841636104</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>648483.4122636104</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>648483.4122636104</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>652360.5083636104</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>652362.5083636104</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>650309.3472636103</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>650309.3472636103</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>650309.3472636103</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>650310.4672636103</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>648503.3311636103</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>648503.3311636103</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>641737.9161636103</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>642037.9161636103</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>642037.9161636103</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>642038.9161636103</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>642031.5702636103</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>642032.6902636103</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>642032.6902636103</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>642032.6902636103</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>625285.4671636104</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>636657.4379847303</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>636657.4379847303</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>636657.4379847303</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>636845.9472847304</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>636845.9472847304</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>663576.9160847304</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>663576.9160847304</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>675575.3204847304</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>673145.7062847305</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>674968.0406847305</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>677552.9367847305</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>667985.7477847305</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>667986.7477847305</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>647285.2553847305</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>650836.2491847306</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>651624.9046847306</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>651624.9046847306</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>651626.9046847306</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>651366.0380847306</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>651367.0380847306</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>690452.7454847306</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>713194.7993847306</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>702381.8696847307</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>701208.4067847306</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>706401.2318847306</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>706401.2318847306</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>690651.4804847307</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>687114.2897847306</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>687114.2897847306</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>689785.8387847306</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>676696.1193847307</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>677744.1193847307</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>677744.1193847307</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>676700.3147847307</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>694651.6174847307</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>698262.7175847307</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>718247.5993847307</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>749622.3374957407</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>749622.3374957407</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>780118.1762429707</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>760575.8949429707</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>742131.7584429707</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>749030.6692429706</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>767079.0094429706</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>762574.0114429706</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>774600.8767014806</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>774656.3357014806</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>765734.3797014806</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>760103.7638014806</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>760103.7638014806</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>683415.0581705911</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>694912.7577705911</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>694912.7577705911</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>695019.1703705911</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>695019.1703705911</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>637139.3304314014</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>637152.3304314014</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>637152.3304314014</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>637152.3304314014</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>637152.3304314014</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>636725.2567314014</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>604401.7107314015</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>612066.0185314014</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>775819.5855314013</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-11 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 STEEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>649120.1234636103</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>649118.1234636103</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>648248.3979636104</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>690452.7454847306</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>713194.7993847306</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>702381.8696847307</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>701208.4067847306</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>706401.2318847306</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>706401.2318847306</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>690651.4804847307</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>687114.2897847306</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>687114.2897847306</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>689785.8387847306</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>676696.1193847307</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>677744.1193847307</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>677744.1193847307</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>676700.3147847307</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>694651.6174847307</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>698262.7175847307</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>718247.5993847307</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>749622.3374957407</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>749622.3374957407</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>811784.1458429707</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>780118.1762429707</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>760575.8949429707</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>742131.7584429707</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>749030.6692429706</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>782156.6247014806</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>774600.8767014806</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>774656.3357014806</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>764656.3357014806</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>764658.3357014806</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>764658.3357014806</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>781515.5710014806</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>765734.3797014806</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>765734.3797014806</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>760103.7638014806</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>760103.7638014806</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>742085.5124126007</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>720226.4385126007</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>683415.0581705911</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>694912.7577705911</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>694912.7577705911</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>695019.1703705911</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>695019.1703705911</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>612066.0185314014</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>609199.9328314014</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>775819.5855314013</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>775819.5855314013</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
